--- a/交握功能說明.xlsx
+++ b/交握功能說明.xlsx
@@ -14,6 +14,7 @@
   <sheets>
     <sheet name="交握" sheetId="2" r:id="rId1"/>
     <sheet name="工作站設定" sheetId="1" r:id="rId2"/>
+    <sheet name="工作表1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="84">
   <si>
     <t>PLC發送</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -147,10 +148,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1:Auto 2:Manual 3:maintenance 4:Alarm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>交握流水號</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -159,78 +156,134 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Ipc_Handshake</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPC提供PLC設定儲位區</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPC提供PLC設定儲位層</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ipc_Tmag_Layer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ipc_Tool_Num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ipc_EDM_Num</t>
+  </si>
+  <si>
+    <t>設定EDM編號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARRAY[0..1, 0..19] OF WSTRING(64)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plc_StorageCell</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARRAY[1..5, 1..3] OF BOOL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故障內容(二維陣列 0:控制系警報 1:軸系警報)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ipc_Alarm_RST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>設備錯誤清除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plc_Device_Status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OPCUA TAG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能碼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7，8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOOL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ipc_Tchange_Done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2，3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>設定刀塔巡刀巡第幾層 0~3 若設0則三層全巡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4，5，6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4~7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>IPC提供PLC交握通道開啟訊號</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Ipc_Handshake</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ipc_Cell_Area</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ipc_Cell_Layer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IPC提供PLC設定儲位區</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IPC提供PLC設定儲位層</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ipc_Tmag_Layer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ipc_Tool_Num</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>設定第幾刀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ipc_EDM_Num</t>
-  </si>
-  <si>
-    <t>設定EDM編號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Plc_ErrorContent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ARRAY[0..1, 0..19] OF WSTRING(64)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Plc_StorageCell</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ARRAY[1..5, 1..3] OF BOOL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0:idle 1:Ready 2:space 3:Run 4:Alarm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>故障內容(二維陣列 0:控制系警報 1:軸系警報)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ipc_Alarm_RST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>設備錯誤清除</t>
+    <t>Plc_Serial_Number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>儲位在籍檢知(二維陣列共5區3層)                            1-1 深孔夾治具1 , 1-2 儲位1 , 1-3 儲位2                                   2-1 電擊夾治具2 , 2-2 儲位3 , 2-3 儲位4                                 3-1 Nul , 3-2 儲位5 3-3 儲位6                                        4-1 儲位7 , 4-2 儲位8 , 4-3儲位9                                   5-1 儲位10 , 5-2儲位11 , 5-3 儲位12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ipc_Tool_Layer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手動上下刀完成訊號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>設定刀號第幾刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RFID巡刀資料                                                         0~29第一層 30~59第二層 60~89第三層                       空刀為"Nul"   錯誤為"Err"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>設定刀塔第幾層1~3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ipc_Storage_Area</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ipc_Storage_Layer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -238,66 +291,75 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Plc_Device_Status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Plc_Serial_number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>儲位在籍檢知(二維陣列共5區3層)                            1-1 夾治具1 , 1-2 儲位1 , 1-3 儲位2                                   2-1 夾治具2 , 2-2 儲位3 , 2-3 儲位4                                 3-1 Nul , 3-2 儲位5 3-3 儲位6                                        4-1 儲位7 , 4-2 儲位8 , 4-3儲位9                                   5-1 儲位10 , 5-2儲位11 , 5-3 儲位12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OPCUA TAG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能碼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4，5，6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7，8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5，6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>設定刀塔第幾層 0~3 若設0則三層全巡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Plc_RFID_Rdata</t>
+    <t>BOOL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前門控制開關訊號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ipc_Fdoor_Ctrl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ipc_PLoad_Done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ipc_PUnload_Done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手動上盤完成訊號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手動下盤完成訊號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 : idle 1  :Ready 2 : space 3 : Run 4 : Alarm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 : Auto  2 : Manual  3 : maintenance  4 : Alarm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plc_Error_Details</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plc_Warning_Details</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WSTRING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>警告內容 (無立即停止風險)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plc_RFID_PRdata</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plc_RFID_Tdata</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ARRAY [0..89] OF STRING(30)</t>
-  </si>
-  <si>
-    <t>RFID巡刀資料                                                         0~29第一層 30~59第二層 60~89第三層</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BOOL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ipc_Tchange_Done</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手動上下刀完成訊號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2，3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STRING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RFID料盤讀取資料</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -478,8 +540,8 @@
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>285300</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>96607</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>607595</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -516,8 +578,8 @@
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>238460</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>180830</xdr:rowOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>28430</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -850,17 +912,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="37.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.88671875" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -874,7 +936,7 @@
     <row r="2" spans="1:8" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
       <c r="B2" s="14" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
@@ -895,7 +957,7 @@
         <v>20</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
@@ -948,13 +1010,13 @@
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
       <c r="B7" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="E7" s="11"/>
       <c r="F7" s="8"/>
@@ -964,13 +1026,13 @@
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="8"/>
       <c r="B8" s="8" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E8" s="11"/>
       <c r="F8" s="8"/>
@@ -980,16 +1042,16 @@
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="8"/>
       <c r="B9" s="8" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>29</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
@@ -998,16 +1060,16 @@
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="8"/>
       <c r="B10" s="8" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>29</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
@@ -1016,13 +1078,13 @@
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="8"/>
       <c r="B11" s="8" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>29</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="E11" s="11">
         <v>2</v>
@@ -1034,17 +1096,15 @@
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
       <c r="B12" s="8" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>29</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>59</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="E12" s="11"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
@@ -1052,16 +1112,16 @@
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="8"/>
       <c r="B13" s="8" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>29</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
@@ -1070,16 +1130,16 @@
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="8"/>
       <c r="B14" s="8" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="E14" s="11">
-        <v>3</v>
+        <v>38</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>53</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
@@ -1087,19 +1147,33 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="11"/>
+      <c r="B15" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="11">
+        <v>3</v>
+      </c>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
+      <c r="B16" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>71</v>
+      </c>
       <c r="E16" s="11"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
@@ -1107,11 +1181,15 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="8"/>
-      <c r="B17" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
+      <c r="B17" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>72</v>
+      </c>
       <c r="E17" s="11"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
@@ -1120,13 +1198,13 @@
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="8"/>
       <c r="B18" s="8" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="E18" s="11"/>
       <c r="F18" s="8"/>
@@ -1135,15 +1213,9 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="8"/>
-      <c r="B19" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
       <c r="E19" s="11"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
@@ -1151,73 +1223,144 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="8"/>
-      <c r="B20" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>49</v>
-      </c>
+      <c r="B20" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
       <c r="E20" s="11"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="8"/>
       <c r="B21" s="8" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C21" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E21" s="11"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E22" s="11"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="11"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E24" s="11"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B25" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D25" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="11"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B26" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E21" s="11"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B22" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E22" s="11"/>
-    </row>
-    <row r="23" spans="1:8" ht="105" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="E23" s="11"/>
-    </row>
-    <row r="24" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C24" t="s">
-        <v>63</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>68</v>
+      <c r="E26" s="11"/>
+    </row>
+    <row r="27" spans="1:8" ht="105" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27" s="11"/>
+    </row>
+    <row r="28" spans="1:8" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" t="s">
+        <v>81</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B20:D20"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B4:E4"/>
   </mergeCells>
@@ -1439,4 +1582,17 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/交握功能說明.xlsx
+++ b/交握功能說明.xlsx
@@ -14,7 +14,6 @@
   <sheets>
     <sheet name="交握" sheetId="2" r:id="rId1"/>
     <sheet name="工作站設定" sheetId="1" r:id="rId2"/>
-    <sheet name="工作表1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="100">
   <si>
     <t>PLC發送</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -168,7 +167,231 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Ipc_Tmag_Layer</t>
+    <t>ARRAY[0..1, 0..19] OF WSTRING(64)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plc_StorageCell</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARRAY[1..5, 1..3] OF BOOL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故障內容(二維陣列 0:控制系警報 1:軸系警報)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ipc_Alarm_RST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>設備錯誤清除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plc_Device_Status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OPCUA TAG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOOL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPC提供PLC交握通道開啟訊號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plc_Serial_Number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手動上下刀完成訊號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RFID巡刀資料                                                         0~29第一層 30~59第二層 60~89第三層                       空刀為"Nul"   錯誤為"Err"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>設定刀塔第幾層1~3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ipc_Storage_Area</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ipc_Storage_Layer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plc_Device_Mode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOOL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ipc_Fdoor_Ctrl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手動上盤完成訊號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手動下盤完成訊號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 : idle 1  :Ready 2 : space 3 : Run 4 : Alarm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 : Auto  2 : Manual  3 : maintenance  4 : Alarm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plc_Error_Details</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plc_Warning_Details</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WSTRING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>警告內容 (無立即停止風險)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plc_RFID_PRdata</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plc_RFID_Tdata</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARRAY [0..89] OF STRING(30)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STRING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RFID料盤讀取資料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>設定刀塔巡刀巡第幾層 0~3 若設0則三層全巡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ipc_Tool_Layer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>設定刀號第幾刀1~30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>設定EDM編號1，2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>儲位在籍檢知(二維陣列共5區3層)NC接點                            1-1 深孔夾治具1 , 1-2 儲位1 , 1-3 儲位2                                   2-1 電擊夾治具2 , 2-2 儲位3 , 2-3 儲位4                                 3-1 Nul , 3-2 儲位5 3-3 儲位6                                        4-1 儲位7 , 4-2 儲位8 , 4-3儲位9                                   5-1 儲位10 , 5-2儲位11 , 5-3 儲位12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPC提供EDM夾刀完成訊號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ipc_EDM_ClampDone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ipc_EDM_ReleaseDone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPC提供EDM鬆刀完成訊號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">初始化復歸 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOOL-刀庫取刀到EDM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOOL-EDM取刀回刀庫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">巡刀(讀取全部RFID) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">手動取放刀 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">手動取盤 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">手動放盤 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">倉儲取盤到EDM </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">EDM取盤到倉儲 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FuncCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能碼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,5,6,7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,5,6,7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ipc_R_Tmag_Layer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,8,9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,9</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -177,53 +400,10 @@
   </si>
   <si>
     <t>Ipc_EDM_Num</t>
-  </si>
-  <si>
-    <t>設定EDM編號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ARRAY[0..1, 0..19] OF WSTRING(64)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Plc_StorageCell</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ARRAY[1..5, 1..3] OF BOOL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>故障內容(二維陣列 0:控制系警報 1:軸系警報)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ipc_Alarm_RST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>設備錯誤清除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Plc_Device_Status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OPCUA TAG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能碼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7，8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BOOL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,7,8,9</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -231,78 +411,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2，3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>設定刀塔巡刀巡第幾層 0~3 若設0則三層全巡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4，5，6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4~7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IPC提供PLC交握通道開啟訊號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Plc_Serial_Number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>儲位在籍檢知(二維陣列共5區3層)                            1-1 深孔夾治具1 , 1-2 儲位1 , 1-3 儲位2                                   2-1 電擊夾治具2 , 2-2 儲位3 , 2-3 儲位4                                 3-1 Nul , 3-2 儲位5 3-3 儲位6                                        4-1 儲位7 , 4-2 儲位8 , 4-3儲位9                                   5-1 儲位10 , 5-2儲位11 , 5-3 儲位12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ipc_Tool_Layer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手動上下刀完成訊號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>設定刀號第幾刀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RFID巡刀資料                                                         0~29第一層 30~59第二層 60~89第三層                       空刀為"Nul"   錯誤為"Err"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>設定刀塔第幾層1~3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ipc_Storage_Area</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ipc_Storage_Layer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Plc_Device_Mode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BOOL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前門控制開關訊號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ipc_Fdoor_Ctrl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Ipc_PLoad_Done</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -311,55 +419,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>手動上盤完成訊號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手動下盤完成訊號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0 : idle 1  :Ready 2 : space 3 : Run 4 : Alarm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 : Auto  2 : Manual  3 : maintenance  4 : Alarm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Plc_Error_Details</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Plc_Warning_Details</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WSTRING</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>警告內容 (無立即停止風險)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Plc_RFID_PRdata</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Plc_RFID_Tdata</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ARRAY [0..89] OF STRING(30)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STRING</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RFID料盤讀取資料</t>
+    <t>前門解鎖控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -367,7 +431,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -402,6 +466,22 @@
     <font>
       <b/>
       <sz val="16"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="新細明體"/>
       <family val="1"/>
@@ -464,7 +544,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -511,6 +591,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -533,15 +622,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>360830</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>215154</xdr:rowOff>
+      <xdr:colOff>118784</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>285300</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>607595</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>150830</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>188259</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -558,8 +647,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8760759" y="421342"/>
-          <a:ext cx="4801270" cy="5717477"/>
+          <a:off x="8760760" y="3182470"/>
+          <a:ext cx="4801270" cy="6947648"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -570,16 +659,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>497092</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>98163</xdr:rowOff>
+      <xdr:rowOff>107128</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>238460</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>28430</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>23308</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>1536</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -602,7 +691,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13773821" y="98163"/>
+          <a:off x="13693140" y="107128"/>
           <a:ext cx="2179768" cy="11118220"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -912,18 +1001,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="37.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="46.88671875" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.109375" customWidth="1"/>
+    <col min="7" max="7" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -936,7 +1028,7 @@
     <row r="2" spans="1:8" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
       <c r="B2" s="14" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
@@ -957,13 +1049,16 @@
         <v>20</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A4" s="8"/>
       <c r="B4" s="13" t="s">
         <v>23</v>
@@ -971,11 +1066,14 @@
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G4" s="18">
+        <v>1</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A5" s="8"/>
       <c r="B5" s="8" t="s">
         <v>18</v>
@@ -987,11 +1085,14 @@
         <v>21</v>
       </c>
       <c r="E5" s="11"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G5" s="18">
+        <v>2</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A6" s="8"/>
       <c r="B6" s="8" t="s">
         <v>19</v>
@@ -1003,11 +1104,14 @@
         <v>22</v>
       </c>
       <c r="E6" s="11"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G6" s="18">
+        <v>3</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
       <c r="B7" s="8" t="s">
         <v>32</v>
@@ -1016,33 +1120,39 @@
         <v>28</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="E7" s="11"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G7" s="18">
+        <v>4</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A8" s="8"/>
       <c r="B8" s="8" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E8" s="11"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G8" s="18">
+        <v>5</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A9" s="8"/>
       <c r="B9" s="8" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>29</v>
@@ -1051,16 +1161,19 @@
         <v>33</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+      <c r="G9" s="18">
+        <v>6</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A10" s="8"/>
       <c r="B10" s="8" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>29</v>
@@ -1069,59 +1182,70 @@
         <v>34</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+      <c r="G10" s="18">
+        <v>7</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A11" s="8"/>
       <c r="B11" s="8" t="s">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>29</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E11" s="11">
-        <v>2</v>
-      </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="G11" s="18">
+        <v>8</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
       <c r="B12" s="8" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>29</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
+        <v>48</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="G12" s="18">
+        <v>9</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="8"/>
       <c r="B13" s="8" t="s">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>29</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>48</v>
+        <v>91</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
@@ -1130,16 +1254,16 @@
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="8"/>
       <c r="B14" s="8" t="s">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>29</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
@@ -1148,13 +1272,13 @@
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="8"/>
       <c r="B15" s="8" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="E15" s="11">
         <v>3</v>
@@ -1166,15 +1290,17 @@
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="8"/>
       <c r="B16" s="8" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E16" s="11"/>
+        <v>54</v>
+      </c>
+      <c r="E16" s="11">
+        <v>5</v>
+      </c>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
@@ -1182,15 +1308,17 @@
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="8"/>
       <c r="B17" s="8" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="E17" s="11"/>
+        <v>55</v>
+      </c>
+      <c r="E17" s="11">
+        <v>4</v>
+      </c>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
@@ -1198,52 +1326,62 @@
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="8"/>
       <c r="B18" s="8" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="E18" s="11"/>
+        <v>98</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>99</v>
+      </c>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="11"/>
+      <c r="B19" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E19" s="11">
+        <v>8</v>
+      </c>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="8"/>
-      <c r="B20" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="11"/>
+      <c r="B20" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" s="11">
+        <v>9</v>
+      </c>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="8"/>
-      <c r="B21" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>73</v>
-      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
       <c r="E21" s="11"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
@@ -1251,15 +1389,11 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="8"/>
-      <c r="B22" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>74</v>
-      </c>
+      <c r="B22" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
       <c r="E22" s="11"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
@@ -1268,13 +1402,13 @@
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="8"/>
       <c r="B23" s="8" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="E23" s="11"/>
       <c r="F23" s="8"/>
@@ -1284,13 +1418,13 @@
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="8"/>
       <c r="B24" s="8" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="E24" s="11"/>
       <c r="F24" s="8"/>
@@ -1298,69 +1432,103 @@
       <c r="H24" s="8"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="8"/>
       <c r="B25" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C25" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="11"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E26" s="11"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B27" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D27" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E25" s="11"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B26" s="8" t="s">
+      <c r="E27" s="11"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B28" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C28" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D28" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E26" s="11"/>
-    </row>
-    <row r="27" spans="1:8" ht="105" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="E27" s="11"/>
-    </row>
-    <row r="28" spans="1:8" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C28" t="s">
-        <v>81</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E28" s="11"/>
+    </row>
+    <row r="29" spans="1:8" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>83</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E29" s="11"/>
+    </row>
+    <row r="30" spans="1:8" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E30" s="11"/>
+    </row>
+    <row r="31" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="6:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="F43" s="20"/>
+      <c r="G43" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B22:D22"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B4:E4"/>
   </mergeCells>
@@ -1582,17 +1750,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/交握功能說明.xlsx
+++ b/交握功能說明.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="103">
   <si>
     <t>PLC發送</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -424,6 +424,18 @@
   </si>
   <si>
     <t>4,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plc_MagazineCell</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARRAY[1..3, 1..30] OF BOOL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刀庫刀位狀態記憶 (巡刀時更新)                                              1-1 ~ 1-30 為第一層狀態                                                2-1 ~ 2-30 為第二層狀態                                                     3-1 ~ 3-30 為第三層狀態</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -576,6 +588,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -590,15 +611,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -629,8 +641,8 @@
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>150830</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>188259</xdr:rowOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>98612</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -667,8 +679,8 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>23308</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>1536</xdr:rowOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>162901</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1001,10 +1013,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1027,11 +1039,11 @@
     </row>
     <row r="2" spans="1:8" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
@@ -1060,16 +1072,16 @@
     </row>
     <row r="4" spans="1:8" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A4" s="8"/>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="G4" s="18">
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="G4" s="13">
         <v>1</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="14" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1085,10 +1097,10 @@
         <v>21</v>
       </c>
       <c r="E5" s="11"/>
-      <c r="G5" s="18">
+      <c r="G5" s="13">
         <v>2</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="H5" s="14" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1104,10 +1116,10 @@
         <v>22</v>
       </c>
       <c r="E6" s="11"/>
-      <c r="G6" s="18">
+      <c r="G6" s="13">
         <v>3</v>
       </c>
-      <c r="H6" s="19" t="s">
+      <c r="H6" s="14" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1123,10 +1135,10 @@
         <v>44</v>
       </c>
       <c r="E7" s="11"/>
-      <c r="G7" s="18">
+      <c r="G7" s="13">
         <v>4</v>
       </c>
-      <c r="H7" s="19" t="s">
+      <c r="H7" s="14" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1142,10 +1154,10 @@
         <v>40</v>
       </c>
       <c r="E8" s="11"/>
-      <c r="G8" s="18">
+      <c r="G8" s="13">
         <v>5</v>
       </c>
-      <c r="H8" s="19" t="s">
+      <c r="H8" s="14" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1163,10 +1175,10 @@
       <c r="E9" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="G9" s="18">
+      <c r="G9" s="13">
         <v>6</v>
       </c>
-      <c r="H9" s="19" t="s">
+      <c r="H9" s="14" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1184,10 +1196,10 @@
       <c r="E10" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="G10" s="18">
+      <c r="G10" s="13">
         <v>7</v>
       </c>
-      <c r="H10" s="19" t="s">
+      <c r="H10" s="14" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1205,10 +1217,10 @@
       <c r="E11" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="G11" s="18">
+      <c r="G11" s="13">
         <v>8</v>
       </c>
-      <c r="H11" s="19" t="s">
+      <c r="H11" s="14" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1226,10 +1238,10 @@
       <c r="E12" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="G12" s="18">
+      <c r="G12" s="13">
         <v>9</v>
       </c>
-      <c r="H12" s="19" t="s">
+      <c r="H12" s="14" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1389,11 +1401,11 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="8"/>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
       <c r="E22" s="11"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
@@ -1499,32 +1511,44 @@
       </c>
       <c r="E29" s="11"/>
     </row>
-    <row r="30" spans="1:8" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E30" s="11"/>
+    </row>
+    <row r="31" spans="1:8" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C31" t="s">
         <v>64</v>
       </c>
-      <c r="D30" s="12" t="s">
+      <c r="D31" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="E30" s="11"/>
-    </row>
-    <row r="31" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="8" t="s">
+      <c r="E31" s="11"/>
+    </row>
+    <row r="32" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C32" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="D31" s="12" t="s">
+      <c r="D32" s="12" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="43" spans="6:7" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="F43" s="20"/>
-      <c r="G43" s="20"/>
+    <row r="44" spans="6:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="F44" s="15"/>
+      <c r="G44" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1566,168 +1590,168 @@
       <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="15"/>
+      <c r="D1" s="18"/>
       <c r="E1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="15"/>
+      <c r="G1" s="18"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="16" t="s">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="16"/>
-      <c r="G2" s="15"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="18"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="17"/>
+      <c r="A3" s="20"/>
       <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="15"/>
+      <c r="D3" s="18"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="15"/>
+      <c r="G3" s="18"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="17"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="15"/>
+      <c r="D4" s="18"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="15"/>
+      <c r="G4" s="18"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="17"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="15"/>
+      <c r="D5" s="18"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="15"/>
+      <c r="G5" s="18"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="17"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="15"/>
+      <c r="D6" s="18"/>
       <c r="E6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="15"/>
+      <c r="G6" s="18"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="17"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="15"/>
+      <c r="D7" s="18"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="15"/>
+      <c r="G7" s="18"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="17"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
-      <c r="D8" s="15"/>
+      <c r="D8" s="18"/>
       <c r="E8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="15"/>
+      <c r="G8" s="18"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="17"/>
+      <c r="A9" s="20"/>
       <c r="C9" s="3"/>
-      <c r="D9" s="15"/>
+      <c r="D9" s="18"/>
       <c r="E9" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F9" s="3"/>
-      <c r="G9" s="15"/>
+      <c r="G9" s="18"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="17"/>
+      <c r="A10" s="20"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
-      <c r="D10" s="15"/>
+      <c r="D10" s="18"/>
       <c r="E10" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F10" s="7"/>
-      <c r="G10" s="15"/>
+      <c r="G10" s="18"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="17"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="15"/>
+      <c r="D11" s="18"/>
       <c r="E11" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F11" s="3"/>
-      <c r="G11" s="15"/>
+      <c r="G11" s="18"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="17"/>
+      <c r="A12" s="20"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="15"/>
+      <c r="D12" s="18"/>
       <c r="E12" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F12" s="3"/>
-      <c r="G12" s="15"/>
+      <c r="G12" s="18"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="17"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="15"/>
+      <c r="D13" s="18"/>
       <c r="E13" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F13" s="3"/>
-      <c r="G13" s="15"/>
+      <c r="G13" s="18"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="17"/>
+      <c r="A14" s="20"/>
       <c r="B14" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="3"/>
-      <c r="D14" s="15"/>
+      <c r="D14" s="18"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
-      <c r="G14" s="15"/>
+      <c r="G14" s="18"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
